--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2389327.78173246</v>
+        <v>2386829.530411252</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8649912.04142323</v>
+        <v>8649912.041423228</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1379,10 +1379,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>329.0339255840378</v>
+        <v>307.5272957798213</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>251.0267230750015</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1670,7 +1670,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>10.79312374117546</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657078</v>
       </c>
       <c r="H15" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247764</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.3310575773449</v>
+        <v>288.3310575773447</v>
       </c>
       <c r="C17" t="n">
-        <v>270.8701076848719</v>
+        <v>270.8701076848717</v>
       </c>
       <c r="D17" t="n">
-        <v>260.2802575345473</v>
+        <v>260.2802575345471</v>
       </c>
       <c r="E17" t="n">
-        <v>287.5275859861261</v>
+        <v>287.5275859861259</v>
       </c>
       <c r="F17" t="n">
-        <v>312.4732616555758</v>
+        <v>312.4732616555756</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5189415673178</v>
+        <v>316.5189415673176</v>
       </c>
       <c r="H17" t="n">
-        <v>154.2578743136166</v>
+        <v>200.2049803011846</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.78497770204017</v>
+        <v>14.78497770203997</v>
       </c>
       <c r="T17" t="n">
-        <v>109.5151860534845</v>
+        <v>109.5151860534843</v>
       </c>
       <c r="U17" t="n">
-        <v>156.5923878727663</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V17" t="n">
-        <v>233.3494743839992</v>
+        <v>233.3494743839991</v>
       </c>
       <c r="W17" t="n">
-        <v>254.8381846312773</v>
+        <v>254.8381846312772</v>
       </c>
       <c r="X17" t="n">
-        <v>275.3283165923334</v>
+        <v>275.3283165923332</v>
       </c>
       <c r="Y17" t="n">
-        <v>291.8351545699179</v>
+        <v>245.8880485823505</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.42919609580163</v>
+        <v>85.42919609580143</v>
       </c>
       <c r="C19" t="n">
-        <v>72.84403701249217</v>
+        <v>72.84403701249197</v>
       </c>
       <c r="D19" t="n">
-        <v>54.21268893207669</v>
+        <v>54.21268893207649</v>
       </c>
       <c r="E19" t="n">
-        <v>52.0311785604335</v>
+        <v>52.0311785604333</v>
       </c>
       <c r="F19" t="n">
-        <v>51.01826393679558</v>
+        <v>51.01826393679538</v>
       </c>
       <c r="G19" t="n">
-        <v>71.62302417289256</v>
+        <v>71.62302417289236</v>
       </c>
       <c r="H19" t="n">
-        <v>50.35223082818511</v>
+        <v>50.35223082818491</v>
       </c>
       <c r="I19" t="n">
-        <v>1.949636323702428</v>
+        <v>1.949636323702229</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.36624124530621</v>
+        <v>95.36624124530604</v>
       </c>
       <c r="T19" t="n">
-        <v>125.1461651900335</v>
+        <v>125.1461651900333</v>
       </c>
       <c r="U19" t="n">
-        <v>191.8090541194772</v>
+        <v>191.809054119477</v>
       </c>
       <c r="V19" t="n">
-        <v>157.7348592376923</v>
+        <v>157.7348592376921</v>
       </c>
       <c r="W19" t="n">
-        <v>192.1202142504553</v>
+        <v>192.1202142504551</v>
       </c>
       <c r="X19" t="n">
-        <v>131.3068713029015</v>
+        <v>131.3068713029013</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.1818692659591</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.3310575773449</v>
+        <v>288.3310575773447</v>
       </c>
       <c r="C20" t="n">
-        <v>270.8701076848719</v>
+        <v>270.8701076848717</v>
       </c>
       <c r="D20" t="n">
-        <v>260.2802575345473</v>
+        <v>260.2802575345471</v>
       </c>
       <c r="E20" t="n">
-        <v>287.5275859861261</v>
+        <v>287.5275859861259</v>
       </c>
       <c r="F20" t="n">
-        <v>312.4732616555758</v>
+        <v>266.5261556680088</v>
       </c>
       <c r="G20" t="n">
-        <v>316.5189415673178</v>
+        <v>316.5189415673176</v>
       </c>
       <c r="H20" t="n">
-        <v>200.2049803011848</v>
+        <v>200.2049803011846</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.78497770204009</v>
+        <v>14.78497770203997</v>
       </c>
       <c r="T20" t="n">
-        <v>109.5151860534845</v>
+        <v>109.5151860534843</v>
       </c>
       <c r="U20" t="n">
-        <v>156.5923878727663</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V20" t="n">
-        <v>233.3494743839992</v>
+        <v>233.3494743839991</v>
       </c>
       <c r="W20" t="n">
-        <v>254.8381846312773</v>
+        <v>254.8381846312772</v>
       </c>
       <c r="X20" t="n">
-        <v>275.3283165923334</v>
+        <v>275.3283165923332</v>
       </c>
       <c r="Y20" t="n">
-        <v>245.8880485823497</v>
+        <v>291.8351545699177</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2166,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554039</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734097352</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.42919609580163</v>
+        <v>85.42919609580143</v>
       </c>
       <c r="C22" t="n">
-        <v>72.84403701249217</v>
+        <v>72.84403701249197</v>
       </c>
       <c r="D22" t="n">
-        <v>54.21268893207669</v>
+        <v>54.21268893207649</v>
       </c>
       <c r="E22" t="n">
-        <v>52.0311785604335</v>
+        <v>52.0311785604333</v>
       </c>
       <c r="F22" t="n">
-        <v>51.01826393679558</v>
+        <v>51.01826393679538</v>
       </c>
       <c r="G22" t="n">
-        <v>71.62302417289256</v>
+        <v>71.62302417289236</v>
       </c>
       <c r="H22" t="n">
-        <v>50.3522308281851</v>
+        <v>50.35223082818491</v>
       </c>
       <c r="I22" t="n">
-        <v>1.949636323702393</v>
+        <v>1.949636323702229</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.36624124530618</v>
+        <v>95.36624124530604</v>
       </c>
       <c r="T22" t="n">
-        <v>125.1461651900335</v>
+        <v>125.1461651900333</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8090541194772</v>
+        <v>191.809054119477</v>
       </c>
       <c r="V22" t="n">
-        <v>157.7348592376923</v>
+        <v>157.7348592376921</v>
       </c>
       <c r="W22" t="n">
-        <v>192.1202142504553</v>
+        <v>192.1202142504551</v>
       </c>
       <c r="X22" t="n">
-        <v>131.3068713029015</v>
+        <v>131.3068713029013</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.1818692659591</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.3310575773449</v>
+        <v>288.3310575773447</v>
       </c>
       <c r="C23" t="n">
-        <v>270.8701076848719</v>
+        <v>270.8701076848717</v>
       </c>
       <c r="D23" t="n">
-        <v>260.2802575345473</v>
+        <v>260.2802575345471</v>
       </c>
       <c r="E23" t="n">
-        <v>241.580479998557</v>
+        <v>241.5804799985589</v>
       </c>
       <c r="F23" t="n">
-        <v>312.4732616555758</v>
+        <v>312.4732616555756</v>
       </c>
       <c r="G23" t="n">
-        <v>316.5189415673178</v>
+        <v>316.5189415673176</v>
       </c>
       <c r="H23" t="n">
-        <v>200.2049803011848</v>
+        <v>200.2049803011846</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.78497770204017</v>
+        <v>14.78497770203997</v>
       </c>
       <c r="T23" t="n">
-        <v>109.5151860534845</v>
+        <v>109.5151860534843</v>
       </c>
       <c r="U23" t="n">
-        <v>156.5923878727663</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V23" t="n">
-        <v>233.3494743839992</v>
+        <v>233.3494743839991</v>
       </c>
       <c r="W23" t="n">
-        <v>254.8381846312773</v>
+        <v>254.8381846312772</v>
       </c>
       <c r="X23" t="n">
-        <v>275.3283165923334</v>
+        <v>275.3283165923332</v>
       </c>
       <c r="Y23" t="n">
-        <v>291.8351545699179</v>
+        <v>291.8351545699177</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2412,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247742</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.42919609580163</v>
+        <v>85.42919609580143</v>
       </c>
       <c r="C25" t="n">
-        <v>72.84403701249217</v>
+        <v>72.84403701249197</v>
       </c>
       <c r="D25" t="n">
-        <v>54.21268893207669</v>
+        <v>54.21268893207649</v>
       </c>
       <c r="E25" t="n">
-        <v>52.0311785604335</v>
+        <v>52.0311785604333</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679558</v>
+        <v>51.01826393679538</v>
       </c>
       <c r="G25" t="n">
-        <v>71.62302417289256</v>
+        <v>71.62302417289236</v>
       </c>
       <c r="H25" t="n">
-        <v>50.35223082818511</v>
+        <v>50.35223082818491</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702428</v>
+        <v>1.949636323702229</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.36624124530621</v>
+        <v>95.36624124530604</v>
       </c>
       <c r="T25" t="n">
-        <v>125.1461651900335</v>
+        <v>125.1461651900333</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8090541194772</v>
+        <v>191.809054119477</v>
       </c>
       <c r="V25" t="n">
-        <v>157.7348592376923</v>
+        <v>157.7348592376921</v>
       </c>
       <c r="W25" t="n">
-        <v>192.1202142504553</v>
+        <v>192.1202142504551</v>
       </c>
       <c r="X25" t="n">
-        <v>131.3068713029015</v>
+        <v>131.3068713029013</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.1818692659591</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.3061941959374</v>
+        <v>335.3061941959373</v>
       </c>
       <c r="C26" t="n">
-        <v>317.8452443034644</v>
+        <v>195.9290651800971</v>
       </c>
       <c r="D26" t="n">
-        <v>289.4539069021116</v>
+        <v>307.2553941531397</v>
       </c>
       <c r="E26" t="n">
-        <v>334.5027226047186</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>359.4483982741683</v>
+        <v>359.4483982741681</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>363.4940781859102</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1801169197773</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.76011432063262</v>
+        <v>61.76011432063251</v>
       </c>
       <c r="T26" t="n">
-        <v>156.490322672077</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U26" t="n">
-        <v>203.5675244913588</v>
+        <v>203.5675244913587</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3246110025917</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W26" t="n">
-        <v>301.8133212498698</v>
+        <v>301.8133212498697</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>322.3034532109257</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8102911885104</v>
+        <v>338.8102911885103</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4043327143941</v>
+        <v>132.404332714394</v>
       </c>
       <c r="C28" t="n">
-        <v>119.8191736310846</v>
+        <v>119.8191736310845</v>
       </c>
       <c r="D28" t="n">
-        <v>101.1878255506692</v>
+        <v>101.187825550669</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00631517902598</v>
+        <v>99.00631517902585</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538805</v>
+        <v>97.99340055538792</v>
       </c>
       <c r="G28" t="n">
-        <v>118.598160791485</v>
+        <v>118.5981607914849</v>
       </c>
       <c r="H28" t="n">
-        <v>97.32736744677759</v>
+        <v>97.32736744677746</v>
       </c>
       <c r="I28" t="n">
-        <v>48.9247729422949</v>
+        <v>48.92477294229477</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.50450520250415</v>
+        <v>41.50450520250401</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3413778638987</v>
+        <v>142.3413778638986</v>
       </c>
       <c r="T28" t="n">
-        <v>172.121301808626</v>
+        <v>172.1213018086259</v>
       </c>
       <c r="U28" t="n">
-        <v>238.7841907380697</v>
+        <v>238.7841907380695</v>
       </c>
       <c r="V28" t="n">
-        <v>204.7099958562848</v>
+        <v>204.7099958562847</v>
       </c>
       <c r="W28" t="n">
-        <v>239.0953508690478</v>
+        <v>239.0953508690477</v>
       </c>
       <c r="X28" t="n">
-        <v>178.282007921494</v>
+        <v>178.2820079214938</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.1570058845516</v>
+        <v>171.1570058845515</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>335.3061941959373</v>
       </c>
       <c r="C29" t="n">
-        <v>317.8452443034645</v>
+        <v>317.8452443034643</v>
       </c>
       <c r="D29" t="n">
-        <v>307.2553941531399</v>
+        <v>214.3305706109636</v>
       </c>
       <c r="E29" t="n">
-        <v>334.5027226047188</v>
+        <v>334.5027226047185</v>
       </c>
       <c r="F29" t="n">
-        <v>359.4483982741684</v>
+        <v>359.4483982741681</v>
       </c>
       <c r="G29" t="n">
-        <v>363.4940781859104</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1801169197774</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>61.76011432063254</v>
       </c>
       <c r="T29" t="n">
-        <v>156.4903226720771</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U29" t="n">
-        <v>203.567524491359</v>
+        <v>203.5675244913587</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W29" t="n">
-        <v>301.81332124987</v>
+        <v>301.8133212498697</v>
       </c>
       <c r="X29" t="n">
-        <v>296.0953540822216</v>
+        <v>322.3034532109257</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.8102911885106</v>
+        <v>338.8102911885103</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247742</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.4043327143943</v>
+        <v>132.404332714394</v>
       </c>
       <c r="C31" t="n">
-        <v>119.8191736310848</v>
+        <v>119.8191736310845</v>
       </c>
       <c r="D31" t="n">
-        <v>101.1878255506693</v>
+        <v>101.1878255506691</v>
       </c>
       <c r="E31" t="n">
-        <v>99.00631517902616</v>
+        <v>99.00631517902588</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538823</v>
+        <v>97.99340055538795</v>
       </c>
       <c r="G31" t="n">
-        <v>118.5981607914852</v>
+        <v>118.5981607914849</v>
       </c>
       <c r="H31" t="n">
-        <v>97.32736744677777</v>
+        <v>97.32736744677749</v>
       </c>
       <c r="I31" t="n">
-        <v>48.92477294229509</v>
+        <v>48.9247729422948</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250432</v>
+        <v>41.50450520250403</v>
       </c>
       <c r="S31" t="n">
-        <v>142.3413778638989</v>
+        <v>142.3413778638986</v>
       </c>
       <c r="T31" t="n">
-        <v>172.1213018086262</v>
+        <v>172.1213018086259</v>
       </c>
       <c r="U31" t="n">
-        <v>238.7841907380698</v>
+        <v>238.7841907380696</v>
       </c>
       <c r="V31" t="n">
-        <v>204.709995856285</v>
+        <v>204.7099958562847</v>
       </c>
       <c r="W31" t="n">
-        <v>239.095350869048</v>
+        <v>239.0953508690477</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2820079214941</v>
+        <v>178.2820079214939</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.1570058845518</v>
+        <v>171.1570058845515</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C32" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D32" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E32" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F32" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G32" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H32" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T32" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U32" t="n">
         <v>153.3104517307971</v>
@@ -3092,7 +3092,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X32" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y32" t="n">
         <v>288.5532184279487</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C34" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D34" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E34" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F34" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G34" t="n">
-        <v>68.34108803092333</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H34" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T34" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U34" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V34" t="n">
         <v>154.4529230957231</v>
@@ -3250,7 +3250,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X34" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y34" t="n">
         <v>120.8999331239899</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3396,7 +3396,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U36" t="n">
         <v>225.7871683969286</v>
@@ -3509,10 +3509,10 @@
         <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441554</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3521,7 +3521,7 @@
         <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.420943362973048e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,16 +3560,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851098</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247742</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333694</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.923044159216</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3870,7 +3870,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U42" t="n">
         <v>225.7871683969286</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538324</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.084305103337</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -4107,7 +4107,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U45" t="n">
         <v>225.7871683969286</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1650.849925018064</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="C11" t="n">
-        <v>1329.337041025725</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D11" t="n">
-        <v>1018.520975367048</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E11" t="n">
-        <v>680.1823557168771</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F11" t="n">
-        <v>316.646083875343</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638546</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243049</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921008</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425608001</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1650.849925018064</v>
+        <v>1672.57379350717</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268791</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770414</v>
+        <v>335.408918177042</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998343</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5212,37 +5212,37 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F14" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
@@ -5291,37 +5291,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.077706941468</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>2960.996863163377</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2677.38360876788</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2372.064586445839</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.162441252732</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2018.472742224994</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811088</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999819</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387306</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332751</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601601</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927782</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064571</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228008</v>
@@ -5361,46 +5361,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,58 +5410,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052951</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254615</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611991</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268792</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.140134131526</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.632702332809</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337118</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
         <v>1938.403572105846</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874615</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,64 +5489,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1684.621236373654</v>
+        <v>1731.032454542913</v>
       </c>
       <c r="C17" t="n">
-        <v>1411.015066994996</v>
+        <v>1457.426285164255</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.105715949998</v>
+        <v>1194.516934119258</v>
       </c>
       <c r="E17" t="n">
-        <v>857.6738109135072</v>
+        <v>904.0850290827671</v>
       </c>
       <c r="F17" t="n">
-        <v>542.0442536856528</v>
+        <v>588.455471854913</v>
       </c>
       <c r="G17" t="n">
-        <v>222.3281510924022</v>
+        <v>268.7393692616628</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.671500698021</v>
+        <v>3310.671500698019</v>
       </c>
       <c r="T17" t="n">
-        <v>3200.050100643996</v>
+        <v>3200.050100643995</v>
       </c>
       <c r="U17" t="n">
-        <v>3041.875971479586</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V17" t="n">
         <v>2806.169431697768</v>
@@ -5555,10 +5555,10 @@
         <v>2548.757123989407</v>
       </c>
       <c r="X17" t="n">
-        <v>2270.647713290081</v>
+        <v>2270.64771329008</v>
       </c>
       <c r="Y17" t="n">
-        <v>1975.864728876022</v>
+        <v>2022.275947045282</v>
       </c>
     </row>
     <row r="18">
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>424.119247509535</v>
+        <v>424.1192475095336</v>
       </c>
       <c r="C19" t="n">
-        <v>350.5394121433813</v>
+        <v>350.53941214338</v>
       </c>
       <c r="D19" t="n">
-        <v>295.7791202927988</v>
+        <v>295.7791202927978</v>
       </c>
       <c r="E19" t="n">
-        <v>243.2223742721589</v>
+        <v>243.2223742721581</v>
       </c>
       <c r="F19" t="n">
-        <v>191.6887743360018</v>
+        <v>191.6887743360011</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3422852724739</v>
+        <v>119.3422852724735</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208489</v>
+        <v>68.48144605208466</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7936262148972</v>
+        <v>171.7936262148974</v>
       </c>
       <c r="K19" t="n">
-        <v>363.5632367278419</v>
+        <v>321.4050986989537</v>
       </c>
       <c r="L19" t="n">
-        <v>612.7318368954734</v>
+        <v>477.1149426213109</v>
       </c>
       <c r="M19" t="n">
-        <v>873.6230744399455</v>
+        <v>738.0061801657832</v>
       </c>
       <c r="N19" t="n">
-        <v>1101.64845478811</v>
+        <v>1002.773773440905</v>
       </c>
       <c r="O19" t="n">
-        <v>1333.025560251574</v>
+        <v>1234.150878904369</v>
       </c>
       <c r="P19" t="n">
-        <v>1525.435319249607</v>
+        <v>1426.560637902403</v>
       </c>
       <c r="Q19" t="n">
-        <v>1538.356086608148</v>
+        <v>1532.940161506218</v>
       </c>
       <c r="R19" t="n">
-        <v>1538.356086608148</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S19" t="n">
-        <v>1442.026549996727</v>
+        <v>1442.026549996725</v>
       </c>
       <c r="T19" t="n">
-        <v>1315.616282128007</v>
+        <v>1315.616282128005</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.869762815404</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V19" t="n">
-        <v>962.54162217127</v>
+        <v>962.5416221712678</v>
       </c>
       <c r="W19" t="n">
-        <v>768.4807996960626</v>
+        <v>768.4807996960606</v>
       </c>
       <c r="X19" t="n">
-        <v>635.8475963597984</v>
+        <v>635.8475963597966</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.4113647780215</v>
+        <v>510.4113647780199</v>
       </c>
     </row>
     <row r="20">
@@ -5726,64 +5726,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1731.032454542914</v>
+        <v>1684.621236373654</v>
       </c>
       <c r="C20" t="n">
-        <v>1457.426285164256</v>
+        <v>1411.015066994996</v>
       </c>
       <c r="D20" t="n">
-        <v>1194.516934119259</v>
+        <v>1148.105715949999</v>
       </c>
       <c r="E20" t="n">
-        <v>904.0850290827677</v>
+        <v>857.6738109135076</v>
       </c>
       <c r="F20" t="n">
-        <v>588.4554718549134</v>
+        <v>588.4554718549128</v>
       </c>
       <c r="G20" t="n">
-        <v>268.7393692616631</v>
+        <v>268.7393692616628</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.671500698021</v>
+        <v>3310.671500698019</v>
       </c>
       <c r="T20" t="n">
-        <v>3200.050100643996</v>
+        <v>3200.050100643995</v>
       </c>
       <c r="U20" t="n">
-        <v>3041.875971479586</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V20" t="n">
         <v>2806.169431697768</v>
@@ -5795,7 +5795,7 @@
         <v>2270.64771329008</v>
       </c>
       <c r="Y20" t="n">
-        <v>2022.275947045283</v>
+        <v>1975.864728876022</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811116</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999846</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387333</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215814</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410641</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886744</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533344</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125859</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619339</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297195</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431611</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199868</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471666</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266134</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.75919150118</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>424.119247509535</v>
+        <v>424.1192475095336</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5394121433813</v>
+        <v>350.53941214338</v>
       </c>
       <c r="D22" t="n">
-        <v>295.7791202927988</v>
+        <v>295.7791202927978</v>
       </c>
       <c r="E22" t="n">
-        <v>243.2223742721588</v>
+        <v>243.2223742721581</v>
       </c>
       <c r="F22" t="n">
-        <v>191.6887743360017</v>
+        <v>191.6887743360011</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3422852724739</v>
+        <v>119.3422852724735</v>
       </c>
       <c r="H22" t="n">
-        <v>68.48144605208486</v>
+        <v>68.48144605208466</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7936262148973</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
-        <v>363.5632367278421</v>
+        <v>227.9463424536792</v>
       </c>
       <c r="L22" t="n">
-        <v>612.7318368954739</v>
+        <v>477.1149426213109</v>
       </c>
       <c r="M22" t="n">
-        <v>873.6230744399461</v>
+        <v>738.0061801657832</v>
       </c>
       <c r="N22" t="n">
-        <v>1138.390667715068</v>
+        <v>1002.773773440905</v>
       </c>
       <c r="O22" t="n">
-        <v>1327.609635149646</v>
+        <v>1234.150878904369</v>
       </c>
       <c r="P22" t="n">
-        <v>1520.01939414768</v>
+        <v>1426.560637902403</v>
       </c>
       <c r="Q22" t="n">
-        <v>1532.94016150622</v>
+        <v>1532.940161506218</v>
       </c>
       <c r="R22" t="n">
-        <v>1538.356086608148</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S22" t="n">
-        <v>1442.026549996727</v>
+        <v>1442.026549996725</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.616282128007</v>
+        <v>1315.616282128005</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.869762815404</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V22" t="n">
-        <v>962.54162217127</v>
+        <v>962.5416221712678</v>
       </c>
       <c r="W22" t="n">
-        <v>768.4807996960626</v>
+        <v>768.4807996960606</v>
       </c>
       <c r="X22" t="n">
-        <v>635.8475963597984</v>
+        <v>635.8475963597966</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.4113647780215</v>
+        <v>510.4113647780199</v>
       </c>
     </row>
     <row r="23">
@@ -5963,58 +5963,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1684.621236373653</v>
+        <v>1684.621236373654</v>
       </c>
       <c r="C23" t="n">
-        <v>1411.015066994994</v>
+        <v>1411.015066994996</v>
       </c>
       <c r="D23" t="n">
-        <v>1148.105715949997</v>
+        <v>1148.105715949999</v>
       </c>
       <c r="E23" t="n">
-        <v>904.0850290827678</v>
+        <v>904.0850290827669</v>
       </c>
       <c r="F23" t="n">
-        <v>588.4554718549135</v>
+        <v>588.4554718549128</v>
       </c>
       <c r="G23" t="n">
-        <v>268.739369261663</v>
+        <v>268.7393692616628</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3310.67150069802</v>
+        <v>3310.671500698019</v>
       </c>
       <c r="T23" t="n">
         <v>3200.050100643995</v>
@@ -6023,16 +6023,16 @@
         <v>3041.875971479585</v>
       </c>
       <c r="V23" t="n">
-        <v>2806.169431697767</v>
+        <v>2806.169431697768</v>
       </c>
       <c r="W23" t="n">
-        <v>2548.757123989406</v>
+        <v>2548.757123989407</v>
       </c>
       <c r="X23" t="n">
         <v>2270.64771329008</v>
       </c>
       <c r="Y23" t="n">
-        <v>1975.864728876021</v>
+        <v>1975.864728876022</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6099,7 +6099,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6108,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.119247509535</v>
+        <v>424.1192475095336</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433813</v>
+        <v>350.53941214338</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927988</v>
+        <v>295.7791202927978</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2223742721589</v>
+        <v>243.2223742721581</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360017</v>
+        <v>191.6887743360011</v>
       </c>
       <c r="G25" t="n">
-        <v>119.3422852724739</v>
+        <v>119.3422852724735</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208488</v>
+        <v>68.48144605208466</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>171.7936262148972</v>
+        <v>171.7936262148974</v>
       </c>
       <c r="K25" t="n">
-        <v>363.5632367278419</v>
+        <v>270.1044804825677</v>
       </c>
       <c r="L25" t="n">
-        <v>612.7318368954734</v>
+        <v>519.2730806501995</v>
       </c>
       <c r="M25" t="n">
-        <v>873.6230744399455</v>
+        <v>780.1643181946718</v>
       </c>
       <c r="N25" t="n">
-        <v>1044.931911469793</v>
+        <v>1044.931911469794</v>
       </c>
       <c r="O25" t="n">
-        <v>1276.309016933257</v>
+        <v>1276.309016933258</v>
       </c>
       <c r="P25" t="n">
-        <v>1426.560637902405</v>
+        <v>1468.718775931291</v>
       </c>
       <c r="Q25" t="n">
-        <v>1532.94016150622</v>
+        <v>1532.940161506218</v>
       </c>
       <c r="R25" t="n">
-        <v>1538.356086608148</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S25" t="n">
-        <v>1442.026549996727</v>
+        <v>1442.026549996725</v>
       </c>
       <c r="T25" t="n">
-        <v>1315.616282128007</v>
+        <v>1315.616282128005</v>
       </c>
       <c r="U25" t="n">
-        <v>1121.869762815404</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V25" t="n">
-        <v>962.54162217127</v>
+        <v>962.5416221712678</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960626</v>
+        <v>768.4807996960606</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597984</v>
+        <v>635.8475963597966</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.4113647780215</v>
+        <v>510.4113647780199</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1630.583216436467</v>
+        <v>1305.024172789067</v>
       </c>
       <c r="C26" t="n">
-        <v>1309.527414109735</v>
+        <v>1107.116026142505</v>
       </c>
       <c r="D26" t="n">
-        <v>1017.149730370228</v>
+        <v>796.7570421494343</v>
       </c>
       <c r="E26" t="n">
-        <v>679.2681923856638</v>
+        <v>796.7570421494343</v>
       </c>
       <c r="F26" t="n">
-        <v>316.1890022097363</v>
+        <v>433.6778519735068</v>
       </c>
       <c r="G26" t="n">
-        <v>316.1890022097363</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3263.221867749947</v>
+        <v>3263.221867749946</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.150834747849</v>
+        <v>3105.150834747848</v>
       </c>
       <c r="U26" t="n">
         <v>2899.527072635365</v>
       </c>
       <c r="V26" t="n">
-        <v>2616.370899905474</v>
+        <v>2616.370899905475</v>
       </c>
       <c r="W26" t="n">
-        <v>2311.50895924904</v>
+        <v>2311.508959249041</v>
       </c>
       <c r="X26" t="n">
-        <v>2311.50895924904</v>
+        <v>1985.949915601641</v>
       </c>
       <c r="Y26" t="n">
-        <v>1969.276341886908</v>
+        <v>1643.717298239509</v>
       </c>
     </row>
     <row r="27">
@@ -6297,13 +6297,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.2666781460475</v>
+        <v>756.2666781460466</v>
       </c>
       <c r="C28" t="n">
-        <v>635.2372098318206</v>
+        <v>635.2372098318198</v>
       </c>
       <c r="D28" t="n">
-        <v>533.0272850331648</v>
+        <v>533.0272850331642</v>
       </c>
       <c r="E28" t="n">
-        <v>433.0209060644517</v>
+        <v>433.0209060644512</v>
       </c>
       <c r="F28" t="n">
-        <v>334.0376731802214</v>
+        <v>334.037673180221</v>
       </c>
       <c r="G28" t="n">
-        <v>214.2415511686203</v>
+        <v>214.24155116862</v>
       </c>
       <c r="H28" t="n">
-        <v>115.9310790001581</v>
+        <v>115.9310790001579</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>158.5881198719867</v>
+        <v>158.5881198719869</v>
       </c>
       <c r="K28" t="n">
-        <v>409.5286738137308</v>
+        <v>409.5286738137311</v>
       </c>
       <c r="L28" t="n">
-        <v>773.0418432550948</v>
+        <v>773.0418432550952</v>
       </c>
       <c r="M28" t="n">
-        <v>1153.255067274115</v>
+        <v>1164.152259847512</v>
       </c>
       <c r="N28" t="n">
-        <v>1541.616814972848</v>
+        <v>1552.514007546245</v>
       </c>
       <c r="O28" t="n">
-        <v>1887.899784886129</v>
+        <v>1898.796977459526</v>
       </c>
       <c r="P28" t="n">
-        <v>2167.460656312656</v>
+        <v>2178.357848886053</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.024323458038</v>
+        <v>2292.024323458036</v>
       </c>
       <c r="R28" t="n">
-        <v>2250.100580829247</v>
+        <v>2250.100580829244</v>
       </c>
       <c r="S28" t="n">
-        <v>2106.321411269753</v>
+        <v>2106.321411269751</v>
       </c>
       <c r="T28" t="n">
-        <v>1932.461510452959</v>
+        <v>1932.461510452957</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.265358192282</v>
+        <v>1691.265358192281</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.487584600075</v>
+        <v>1484.487584600074</v>
       </c>
       <c r="W28" t="n">
-        <v>1242.977129176795</v>
+        <v>1242.977129176793</v>
       </c>
       <c r="X28" t="n">
-        <v>1062.894292892457</v>
+        <v>1062.894292892456</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.0084283626072</v>
+        <v>890.0084283626062</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2015.730252231355</v>
+        <v>1305.024172789067</v>
       </c>
       <c r="C29" t="n">
-        <v>1694.674449904623</v>
+        <v>983.9683704623353</v>
       </c>
       <c r="D29" t="n">
-        <v>1384.315465911552</v>
+        <v>767.4728445926751</v>
       </c>
       <c r="E29" t="n">
-        <v>1046.433927926988</v>
+        <v>429.5913066081109</v>
       </c>
       <c r="F29" t="n">
-        <v>683.35473775106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G29" t="n">
-        <v>316.1890022097364</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912089</v>
@@ -6479,34 +6479,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3263.221867749946</v>
       </c>
       <c r="T29" t="n">
-        <v>3167.534788607074</v>
+        <v>3105.150834747848</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.91102649459</v>
+        <v>2899.527072635365</v>
       </c>
       <c r="V29" t="n">
-        <v>2961.91102649459</v>
+        <v>2616.370899905474</v>
       </c>
       <c r="W29" t="n">
-        <v>2657.049085838155</v>
+        <v>2311.50895924904</v>
       </c>
       <c r="X29" t="n">
-        <v>2357.962869593487</v>
+        <v>1985.94991560164</v>
       </c>
       <c r="Y29" t="n">
-        <v>2015.730252231355</v>
+        <v>1643.717298239509</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
         <v>2407.411984886741</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.2666781460488</v>
+        <v>756.2666781460467</v>
       </c>
       <c r="C31" t="n">
-        <v>635.2372098318217</v>
+        <v>635.2372098318199</v>
       </c>
       <c r="D31" t="n">
-        <v>533.0272850331658</v>
+        <v>533.0272850331643</v>
       </c>
       <c r="E31" t="n">
-        <v>433.0209060644524</v>
+        <v>433.0209060644513</v>
       </c>
       <c r="F31" t="n">
-        <v>334.0376731802219</v>
+        <v>334.0376731802211</v>
       </c>
       <c r="G31" t="n">
-        <v>214.2415511686207</v>
+        <v>214.2415511686201</v>
       </c>
       <c r="H31" t="n">
-        <v>115.9310790001583</v>
+        <v>115.931079000158</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>158.5881198719866</v>
+        <v>158.5881198719869</v>
       </c>
       <c r="K31" t="n">
-        <v>398.6314812403387</v>
+        <v>409.5286738137311</v>
       </c>
       <c r="L31" t="n">
-        <v>762.1446506817024</v>
+        <v>773.041843255095</v>
       </c>
       <c r="M31" t="n">
-        <v>1153.255067274119</v>
+        <v>1164.152259847512</v>
       </c>
       <c r="N31" t="n">
-        <v>1541.616814972851</v>
+        <v>1552.514007546245</v>
       </c>
       <c r="O31" t="n">
-        <v>1887.899784886132</v>
+        <v>1898.796977459526</v>
       </c>
       <c r="P31" t="n">
-        <v>2167.460656312659</v>
+        <v>2167.460656312654</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.024323458041</v>
+        <v>2292.024323458037</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.100580829249</v>
+        <v>2250.100580829245</v>
       </c>
       <c r="S31" t="n">
-        <v>2106.321411269755</v>
+        <v>2106.321411269751</v>
       </c>
       <c r="T31" t="n">
-        <v>1932.461510452961</v>
+        <v>1932.461510452957</v>
       </c>
       <c r="U31" t="n">
-        <v>1691.265358192284</v>
+        <v>1691.265358192281</v>
       </c>
       <c r="V31" t="n">
-        <v>1484.487584600077</v>
+        <v>1484.487584600074</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.977129176797</v>
+        <v>1242.977129176794</v>
       </c>
       <c r="X31" t="n">
-        <v>1062.894292892459</v>
+        <v>1062.894292892456</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.0084283626087</v>
+        <v>890.0084283626063</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C32" t="n">
         <v>1440.850850103805</v>
@@ -6683,19 +6683,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E32" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F32" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G32" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
@@ -6710,37 +6710,37 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T32" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U32" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V32" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W32" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X32" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y32" t="n">
         <v>1999.070337960652</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6810,7 +6810,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6819,10 +6819,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C34" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D34" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E34" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F34" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G34" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962289</v>
+        <v>163.8840378413028</v>
       </c>
       <c r="K34" t="n">
-        <v>273.3535972631171</v>
+        <v>262.1948921089731</v>
       </c>
       <c r="L34" t="n">
-        <v>525.7713142112982</v>
+        <v>514.6126090571543</v>
       </c>
       <c r="M34" t="n">
-        <v>770.0879214996994</v>
+        <v>778.7529633821759</v>
       </c>
       <c r="N34" t="n">
-        <v>1038.104631555371</v>
+        <v>1046.769673437847</v>
       </c>
       <c r="O34" t="n">
-        <v>1272.730853799384</v>
+        <v>1281.395895681861</v>
       </c>
       <c r="P34" t="n">
-        <v>1371.681856552143</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q34" t="n">
-        <v>1481.310496936508</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R34" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S34" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T34" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U34" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V34" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W34" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y34" t="n">
-        <v>485.2364260734892</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,67 +6920,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7002,46 +7002,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7084,37 +7084,37 @@
         <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J37" t="n">
-        <v>163.8840378413028</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K37" t="n">
-        <v>358.9027651347971</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L37" t="n">
-        <v>611.3204820829782</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M37" t="n">
-        <v>875.4608364079999</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N37" t="n">
-        <v>1046.769673437847</v>
+        <v>941.3967585295463</v>
       </c>
       <c r="O37" t="n">
-        <v>1184.688022656037</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P37" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
         <v>1489.975538818984</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218195</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912074</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810539</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N38" t="n">
         <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954468</v>
+        <v>155.2189959588246</v>
       </c>
       <c r="K40" t="n">
-        <v>370.0614702889411</v>
+        <v>350.2377232523189</v>
       </c>
       <c r="L40" t="n">
-        <v>622.4791872371222</v>
+        <v>602.6554402005002</v>
       </c>
       <c r="M40" t="n">
-        <v>789.91166853632</v>
+        <v>866.795794525522</v>
       </c>
       <c r="N40" t="n">
-        <v>1057.928378591992</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O40" t="n">
-        <v>1292.554600836005</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P40" t="n">
-        <v>1477.054771460443</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
         <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
         <v>1273.865908363023</v>
@@ -7366,16 +7366,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,67 +7394,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495733</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F43" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>175.0427429954467</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>350.2377232523205</v>
+        <v>273.3535972631172</v>
       </c>
       <c r="L43" t="n">
-        <v>602.6554402005016</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M43" t="n">
-        <v>770.0879214996994</v>
+        <v>770.0879214996982</v>
       </c>
       <c r="N43" t="n">
-        <v>1038.104631555371</v>
+        <v>941.3967585295457</v>
       </c>
       <c r="O43" t="n">
-        <v>1176.02298077356</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.681856552143</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W43" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495728</v>
@@ -7643,13 +7643,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218286</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,10 +7658,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296686</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7728,10 +7728,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7804,28 +7804,28 @@
         <v>67.83109325226765</v>
       </c>
       <c r="J46" t="n">
-        <v>176.361719815531</v>
+        <v>155.2189959588249</v>
       </c>
       <c r="K46" t="n">
-        <v>274.6725740832014</v>
+        <v>350.2377232523193</v>
       </c>
       <c r="L46" t="n">
-        <v>527.0902910313827</v>
+        <v>602.6554402005005</v>
       </c>
       <c r="M46" t="n">
-        <v>791.2306453564045</v>
+        <v>770.0879214996983</v>
       </c>
       <c r="N46" t="n">
-        <v>962.539482386252</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O46" t="n">
-        <v>1197.165704630266</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P46" t="n">
-        <v>1380.346898434619</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818984</v>
@@ -10039,7 +10039,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>167.5023956837929</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10051,7 +10051,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>54.33569315209543</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>95.7365011190042</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -10285,7 +10285,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>123.9992980883856</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25815758737082</v>
+        <v>15.25815758737081</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.22887645342324</v>
+        <v>31.7355062576397</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>83.92851037866772</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>311.962840318701</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>45.94710598756818</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>45.94710598756728</v>
       </c>
     </row>
     <row r="18">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>45.94710598756683</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>45.94710598756818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>45.94710598756908</v>
+        <v>45.94710598756703</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24443,22 +24443,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>121.9161791233671</v>
       </c>
       <c r="D26" t="n">
-        <v>17.80148725102822</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>334.5027226047185</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>363.4940781859103</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.1801169197772</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>322.3034532109259</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.3061941959376</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>92.92482354217603</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,10 +24692,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>363.4940781859102</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.1801169197772</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.76011432063283</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,13 +24737,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.3246110025919</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>26.20809912870442</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>721829.8393084004</v>
+        <v>721829.8393084003</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>721829.8393084004</v>
+        <v>721829.8393084003</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756080.5517105977</v>
+        <v>756080.5517105978</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756080.5517105976</v>
+        <v>756080.5517105978</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>722137.791922466</v>
+        <v>722137.7919224662</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>722137.791922466</v>
+        <v>722137.7919224661</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675902.9794415566</v>
+        <v>675902.979441557</v>
       </c>
       <c r="C2" t="n">
-        <v>675902.9794415566</v>
+        <v>675902.979441557</v>
       </c>
       <c r="D2" t="n">
         <v>675905.9070054132</v>
@@ -26323,37 +26323,37 @@
         <v>630738.0831591203</v>
       </c>
       <c r="F2" t="n">
-        <v>630738.0831591205</v>
+        <v>630738.0831591204</v>
       </c>
       <c r="G2" t="n">
-        <v>674342.1136878314</v>
+        <v>674342.1136878313</v>
       </c>
       <c r="H2" t="n">
-        <v>674342.1136878313</v>
+        <v>674342.1136878312</v>
       </c>
       <c r="I2" t="n">
         <v>674342.1136878312</v>
       </c>
       <c r="J2" t="n">
-        <v>631154.1125834286</v>
+        <v>631154.1125834289</v>
       </c>
       <c r="K2" t="n">
-        <v>631154.1125834289</v>
+        <v>631154.1125834287</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380329</v>
       </c>
       <c r="M2" t="n">
-        <v>677359.4601380328</v>
+        <v>677359.4601380329</v>
       </c>
       <c r="N2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380329</v>
       </c>
       <c r="O2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="P2" t="n">
-        <v>677359.4601380329</v>
+        <v>677359.460138033</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.994971248081</v>
+        <v>9496.994971250908</v>
       </c>
       <c r="E3" t="n">
-        <v>1152439.021265978</v>
+        <v>1152439.021265976</v>
       </c>
       <c r="F3" t="n">
-        <v>1.70530256582424e-11</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.11797403448</v>
+        <v>37942.11797403464</v>
       </c>
       <c r="H3" t="n">
-        <v>5.223048447078327e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>78147.776182484</v>
+        <v>78147.77618248395</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920731</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.821258638</v>
+        <v>463750.8212586368</v>
       </c>
       <c r="E4" t="n">
         <v>62485.16516868467</v>
       </c>
       <c r="F4" t="n">
-        <v>62485.16516868468</v>
+        <v>62485.16516868469</v>
       </c>
       <c r="G4" t="n">
-        <v>91701.7012066227</v>
+        <v>91701.70120662285</v>
       </c>
       <c r="H4" t="n">
-        <v>91701.7012066226</v>
+        <v>91701.70120662285</v>
       </c>
       <c r="I4" t="n">
-        <v>91701.7012066227</v>
+        <v>91701.70120662285</v>
       </c>
       <c r="J4" t="n">
-        <v>62762.9882390514</v>
+        <v>62762.98823905144</v>
       </c>
       <c r="K4" t="n">
-        <v>62762.98823905129</v>
+        <v>62762.98823905144</v>
       </c>
       <c r="L4" t="n">
-        <v>93774.13782657696</v>
+        <v>93774.13782657697</v>
       </c>
       <c r="M4" t="n">
+        <v>93774.137826577</v>
+      </c>
+      <c r="N4" t="n">
+        <v>93774.13782657695</v>
+      </c>
+      <c r="O4" t="n">
         <v>93774.13782657703</v>
       </c>
-      <c r="N4" t="n">
-        <v>93774.137826577</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93774.13782657695</v>
-      </c>
       <c r="P4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.13782657703</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.34580328347</v>
+        <v>33869.34580328354</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
         <v>82242.68821673066</v>
       </c>
       <c r="H5" t="n">
-        <v>82242.68821673069</v>
+        <v>82242.68821673066</v>
       </c>
       <c r="I5" t="n">
-        <v>82242.68821673065</v>
+        <v>82242.68821673066</v>
       </c>
       <c r="J5" t="n">
-        <v>78293.53545634219</v>
+        <v>78293.5354563422</v>
       </c>
       <c r="K5" t="n">
-        <v>78293.53545634217</v>
+        <v>78293.5354563422</v>
       </c>
       <c r="L5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174659.4195098254</v>
+        <v>174655.0059319576</v>
       </c>
       <c r="C6" t="n">
-        <v>174659.4195098254</v>
+        <v>174655.0059319576</v>
       </c>
       <c r="D6" t="n">
-        <v>168788.7449722436</v>
+        <v>168784.3402657795</v>
       </c>
       <c r="E6" t="n">
-        <v>-662441.5965973246</v>
+        <v>-662582.8734972579</v>
       </c>
       <c r="F6" t="n">
-        <v>489997.4246686541</v>
+        <v>489856.1477687179</v>
       </c>
       <c r="G6" t="n">
-        <v>462455.6062904436</v>
+        <v>462446.4628163516</v>
       </c>
       <c r="H6" t="n">
-        <v>500397.7242644775</v>
+        <v>500388.5807903861</v>
       </c>
       <c r="I6" t="n">
-        <v>500397.7242644784</v>
+        <v>500388.5807903861</v>
       </c>
       <c r="J6" t="n">
-        <v>490097.588888035</v>
+        <v>489957.5726833243</v>
       </c>
       <c r="K6" t="n">
-        <v>490097.5888880355</v>
+        <v>489957.5726833242</v>
       </c>
       <c r="L6" t="n">
-        <v>422918.9488227224</v>
+        <v>422918.9488227221</v>
       </c>
       <c r="M6" t="n">
-        <v>293878.1567131327</v>
+        <v>293878.1567131331</v>
       </c>
       <c r="N6" t="n">
-        <v>501066.7250052062</v>
+        <v>501066.7250052061</v>
       </c>
       <c r="O6" t="n">
         <v>501066.7250052064</v>
       </c>
       <c r="P6" t="n">
-        <v>501066.725005206</v>
+        <v>501066.7250052061</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="H2" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="I2" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="J2" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="K2" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
         <v>97.68472022810499</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135175</v>
+        <v>11.08925703135506</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>47.4276474675431</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135175</v>
+        <v>11.08925703135506</v>
       </c>
       <c r="E3" t="n">
-        <v>1078.687443561947</v>
+        <v>1078.687443561943</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.915650785631706e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>47.4276474675431</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.0182479305518</v>
+        <v>339.0182479305516</v>
       </c>
       <c r="I8" t="n">
-        <v>208.7572219052755</v>
+        <v>208.757221905275</v>
       </c>
       <c r="J8" t="n">
-        <v>177.2622388826071</v>
+        <v>177.262238882606</v>
       </c>
       <c r="K8" t="n">
-        <v>214.4191170586416</v>
+        <v>214.4191170586399</v>
       </c>
       <c r="L8" t="n">
-        <v>228.7313680193338</v>
+        <v>228.7313680193317</v>
       </c>
       <c r="M8" t="n">
-        <v>222.5183879862422</v>
+        <v>222.5183879862399</v>
       </c>
       <c r="N8" t="n">
-        <v>221.4585556358003</v>
+        <v>221.4585556357979</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951176016</v>
+        <v>222.5869951175994</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8223464178638</v>
+        <v>224.8223464178619</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.4915592001002</v>
+        <v>217.4915592000987</v>
       </c>
       <c r="R8" t="n">
-        <v>212.7851939267124</v>
+        <v>212.7851939267116</v>
       </c>
       <c r="S8" t="n">
-        <v>208.004204482318</v>
+        <v>208.0042044823177</v>
       </c>
       <c r="T8" t="n">
         <v>222.9007009303434</v>
@@ -27947,40 +27947,40 @@
         <v>137.31966479903</v>
       </c>
       <c r="H9" t="n">
-        <v>112.005080614015</v>
+        <v>112.0050806140149</v>
       </c>
       <c r="I9" t="n">
-        <v>98.70114728588574</v>
+        <v>98.7011472858855</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297577</v>
+        <v>124.5841013297571</v>
       </c>
       <c r="K9" t="n">
-        <v>133.9898052373469</v>
+        <v>133.9898052373458</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3753828993358</v>
+        <v>133.3753828993343</v>
       </c>
       <c r="M9" t="n">
-        <v>136.0903888399316</v>
+        <v>136.0903888399298</v>
       </c>
       <c r="N9" t="n">
-        <v>125.138109699351</v>
+        <v>125.1381096993491</v>
       </c>
       <c r="O9" t="n">
-        <v>136.9211602352016</v>
+        <v>136.9211602351999</v>
       </c>
       <c r="P9" t="n">
-        <v>129.4196520121511</v>
+        <v>129.4196520121497</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9370407214889</v>
+        <v>136.937040721488</v>
       </c>
       <c r="R9" t="n">
-        <v>144.1985650721167</v>
+        <v>144.1985650721162</v>
       </c>
       <c r="S9" t="n">
-        <v>171.2401239007456</v>
+        <v>171.2401239007455</v>
       </c>
       <c r="T9" t="n">
         <v>200.0685869286724</v>
@@ -28026,40 +28026,40 @@
         <v>167.9709823375825</v>
       </c>
       <c r="H10" t="n">
-        <v>162.0493808127402</v>
+        <v>162.0493808127401</v>
       </c>
       <c r="I10" t="n">
-        <v>154.8491099721811</v>
+        <v>154.8491099721809</v>
       </c>
       <c r="J10" t="n">
-        <v>125.5816320634482</v>
+        <v>125.5816320634478</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269177</v>
+        <v>126.6899679269171</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9116646502428</v>
+        <v>131.9116646502419</v>
       </c>
       <c r="M10" t="n">
-        <v>135.79116002971</v>
+        <v>135.7911600297091</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6254548978767</v>
+        <v>124.6254548978758</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465402</v>
+        <v>135.6300504465394</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3094552697197</v>
+        <v>135.309455269719</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177117</v>
+        <v>149.8305238177112</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3942526021356</v>
+        <v>176.3942526021353</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6681045004296</v>
+        <v>223.6681045004295</v>
       </c>
       <c r="T10" t="n">
         <v>227.8601476118104</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="14">
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="C17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="D17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="E17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="F17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="G17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="H17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="T17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="U17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="V17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="W17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="X17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="C19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="D19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="E19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="F19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="G19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="H19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="I19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="K19" t="n">
-        <v>94.40278408613567</v>
+        <v>51.81880627917769</v>
       </c>
       <c r="L19" t="n">
-        <v>94.40278408613567</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="N19" t="n">
-        <v>57.28943769526992</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="O19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="P19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="S19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="T19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="U19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="V19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="W19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="X19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="C20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="D20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="E20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="F20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="G20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="H20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="T20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="U20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="V20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="W20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="X20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
     </row>
     <row r="21">
@@ -28886,7 +28886,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.984279490192421e-12</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="C22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="D22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="E22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="F22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="G22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="H22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="I22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="J22" t="n">
-        <v>94.40278408613567</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>94.40278408613567</v>
+        <v>51.81880627917772</v>
       </c>
       <c r="L22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="M22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="N22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="O22" t="n">
-        <v>51.81880627918031</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="P22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="R22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="S22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="T22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="U22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="V22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="W22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="X22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="D23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="E23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="F23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="G23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="H23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="T23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="U23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="V23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="W23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="X23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
     </row>
     <row r="24">
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="D25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="E25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="F25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="G25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="H25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="I25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="J25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="K25" t="n">
-        <v>94.40278408613567</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="M25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="O25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="P25" t="n">
-        <v>51.81880627918142</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.40278408613567</v>
+        <v>51.81880627917768</v>
       </c>
       <c r="R25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="S25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="T25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="U25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="V25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="W25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="X25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.40278408613567</v>
+        <v>94.40278408613587</v>
       </c>
     </row>
     <row r="26">
@@ -29272,31 +29272,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="27">
@@ -29369,10 +29369,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="J28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="K28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="L28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="M28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="N28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="O28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="P28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="R28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="S28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.4276474675432</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="C29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="D29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="E29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="F29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="G29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="H29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29542,7 +29542,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29551,7 +29551,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="T29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="U29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="V29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="W29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="X29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
     </row>
     <row r="30">
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="C31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="D31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="E31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="F31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="G31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="H31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="I31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="J31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="K31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="L31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="M31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="N31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="O31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="P31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="R31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="S31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="T31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="U31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="V31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="W31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="X31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.427647467543</v>
+        <v>47.4276474675433</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29776,13 +29776,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>86.41330088048473</v>
       </c>
       <c r="K34" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M34" t="n">
-        <v>77.66073332242766</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="R34" t="n">
-        <v>97.68472022810489</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="35">
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30162,25 +30162,25 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J37" t="n">
-        <v>86.41330088048471</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K37" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>76.3284335041601</v>
+      </c>
+      <c r="O37" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="M37" t="n">
-        <v>97.68472022810495</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>97.68472022810495</v>
@@ -30189,7 +30189,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S37" t="n">
         <v>97.68472022810495</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292453</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="39">
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810495</v>
+        <v>77.660733322426</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>86.41330088048437</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>77.66073332242769</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>77.66073332242618</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="44">
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30876,31 +30876,31 @@
         <v>97.68472022810499</v>
       </c>
       <c r="J46" t="n">
+        <v>76.32843350415942</v>
+      </c>
+      <c r="K46" t="n">
         <v>97.68472022810499</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>97.68472022810499</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>97.68472022810499</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>97.68472022810499</v>
       </c>
       <c r="P46" t="n">
-        <v>85.08100106221667</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>97.68472022810499</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="S46" t="n">
         <v>97.68472022810499</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04457992776422812</v>
+        <v>0.0445799277642414</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565541852154014</v>
+        <v>0.4565541852155373</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665130406</v>
+        <v>1.718667665130918</v>
       </c>
       <c r="J8" t="n">
-        <v>3.78366564407916</v>
+        <v>3.783665644080286</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986338938</v>
+        <v>5.670733986340625</v>
       </c>
       <c r="L8" t="n">
-        <v>7.035046950653436</v>
+        <v>7.03504695065553</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241030528</v>
+        <v>7.827845241032858</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960790641</v>
+        <v>7.954507960793009</v>
       </c>
       <c r="O8" t="n">
-        <v>7.511216304085098</v>
+        <v>7.511216304087333</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337405715</v>
+        <v>6.410649337407623</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.814130674349293</v>
+        <v>4.814130674350726</v>
       </c>
       <c r="R8" t="n">
-        <v>2.800343887419698</v>
+        <v>2.800343887420531</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927349</v>
+        <v>1.015865103927652</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1951486337879087</v>
+        <v>0.1951486337879668</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003566394221138249</v>
+        <v>0.003566394221139311</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0238523641806434</v>
+        <v>0.0238523641806505</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2303636224814771</v>
+        <v>0.2303636224815456</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141142575</v>
+        <v>0.8212327141145018</v>
       </c>
       <c r="J9" t="n">
-        <v>2.253525336908945</v>
+        <v>2.253525336909616</v>
       </c>
       <c r="K9" t="n">
-        <v>3.851633737012053</v>
+        <v>3.851633737013199</v>
       </c>
       <c r="L9" t="n">
-        <v>5.178996880538384</v>
+        <v>5.178996880539925</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082086706</v>
+        <v>6.043645082088505</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383982338</v>
+        <v>6.203602383984184</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209242818</v>
+        <v>5.675084209244506</v>
       </c>
       <c r="P9" t="n">
-        <v>4.554755402179177</v>
+        <v>4.554755402180533</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.044733364532656</v>
+        <v>3.044733364533562</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847316</v>
+        <v>1.480938891847757</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4430472030922137</v>
+        <v>0.4430472030923456</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09614176614917226</v>
+        <v>0.09614176614920088</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001569234485568645</v>
+        <v>0.001569234485569112</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01999702087620808</v>
+        <v>0.01999702087621403</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1777916946993774</v>
+        <v>0.1777916946994303</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6013649550772395</v>
+        <v>0.6013649550774185</v>
       </c>
       <c r="J10" t="n">
-        <v>1.413789375947911</v>
+        <v>1.413789375948332</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243617629</v>
+        <v>2.323290243618321</v>
       </c>
       <c r="L10" t="n">
-        <v>2.973011630995518</v>
+        <v>2.973011630996403</v>
       </c>
       <c r="M10" t="n">
-        <v>3.134623917895054</v>
+        <v>3.134623917895986</v>
       </c>
       <c r="N10" t="n">
-        <v>3.060089567356462</v>
+        <v>3.060089567357373</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005302576</v>
+        <v>2.826488005303417</v>
       </c>
       <c r="P10" t="n">
-        <v>2.418548779427929</v>
+        <v>2.418548779428649</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734115</v>
+        <v>1.674477811734613</v>
       </c>
       <c r="R10" t="n">
-        <v>0.899138775033865</v>
+        <v>0.8991387750341325</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3484935365426443</v>
+        <v>0.3484935365427481</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08544181647107087</v>
+        <v>0.08544181647109629</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001090746593247715</v>
+        <v>0.001090746593248039</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35577,7 +35577,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35814,7 +35814,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>106.3449593764786</v>
+        <v>106.3449593764788</v>
       </c>
       <c r="K19" t="n">
-        <v>193.7066772858027</v>
+        <v>151.1226994788447</v>
       </c>
       <c r="L19" t="n">
-        <v>251.6854547147794</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
-        <v>263.5265025701739</v>
+        <v>263.526502570174</v>
       </c>
       <c r="N19" t="n">
-        <v>230.3286670183482</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O19" t="n">
-        <v>233.714247942893</v>
+        <v>233.7142479428932</v>
       </c>
       <c r="P19" t="n">
-        <v>194.353291917205</v>
+        <v>194.3532919172052</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.470631416088537</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>106.3449593764786</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>193.7066772858029</v>
+        <v>151.1226994788448</v>
       </c>
       <c r="L22" t="n">
         <v>251.6854547147796</v>
@@ -36291,16 +36291,16 @@
         <v>267.4420134092142</v>
       </c>
       <c r="O22" t="n">
-        <v>191.1302701359378</v>
+        <v>233.7142479428932</v>
       </c>
       <c r="P22" t="n">
-        <v>194.3532919172051</v>
+        <v>194.3532919172052</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014231</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R22" t="n">
-        <v>5.470631416088395</v>
+        <v>5.470631416088537</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>106.3449593764786</v>
+        <v>106.3449593764788</v>
       </c>
       <c r="K25" t="n">
-        <v>193.7066772858027</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L25" t="n">
-        <v>251.6854547147794</v>
+        <v>251.6854547147796</v>
       </c>
       <c r="M25" t="n">
-        <v>263.5265025701739</v>
+        <v>263.526502570174</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O25" t="n">
-        <v>233.714247942893</v>
+        <v>233.7142479428932</v>
       </c>
       <c r="P25" t="n">
-        <v>151.7693141102507</v>
+        <v>194.3532919172052</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.4540642462779</v>
+        <v>64.87008643931988</v>
       </c>
       <c r="R25" t="n">
-        <v>5.470631416088338</v>
+        <v>5.470631416088537</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.00606408060942</v>
+        <v>93.00606408060955</v>
       </c>
       <c r="K28" t="n">
-        <v>253.4753070118628</v>
+        <v>253.4753070118629</v>
       </c>
       <c r="L28" t="n">
-        <v>367.1850196377413</v>
+        <v>367.1850196377414</v>
       </c>
       <c r="M28" t="n">
-        <v>384.0537616353743</v>
+        <v>395.0610268610271</v>
       </c>
       <c r="N28" t="n">
-        <v>392.2845936350833</v>
+        <v>392.2845936350834</v>
       </c>
       <c r="O28" t="n">
-        <v>349.780777690183</v>
+        <v>349.7807776901831</v>
       </c>
       <c r="P28" t="n">
-        <v>282.3847186126536</v>
+        <v>282.3847186126537</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.8218860054369</v>
+        <v>114.814620779781</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,7 +36847,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.00606408060924</v>
+        <v>93.00606408060952</v>
       </c>
       <c r="K31" t="n">
-        <v>242.4680417862143</v>
+        <v>253.4753070118629</v>
       </c>
       <c r="L31" t="n">
-        <v>367.1850196377411</v>
+        <v>367.1850196377414</v>
       </c>
       <c r="M31" t="n">
-        <v>395.0610268610268</v>
+        <v>395.0610268610271</v>
       </c>
       <c r="N31" t="n">
-        <v>392.2845936350831</v>
+        <v>392.2845936350834</v>
       </c>
       <c r="O31" t="n">
-        <v>349.7807776901828</v>
+        <v>349.7807776901831</v>
       </c>
       <c r="P31" t="n">
-        <v>282.3847186126534</v>
+        <v>271.3774533869982</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.8218860054367</v>
+        <v>125.821886005437</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,13 +37072,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923321</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034289</v>
+        <v>98.35547617082761</v>
       </c>
       <c r="K34" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M34" t="n">
-        <v>246.7844518064659</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N34" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O34" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P34" t="n">
         <v>99.95050783106933</v>
@@ -37248,7 +37248,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R34" t="n">
-        <v>8.752567558057564</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37458,25 +37458,25 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J37" t="n">
-        <v>98.3554761708276</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>249.3676628272384</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
         <v>197.6352280591743</v>
@@ -37485,7 +37485,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37698,31 +37698,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184478</v>
+        <v>89.60290861276889</v>
       </c>
       <c r="K40" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>186.3638087115537</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37935,31 +37935,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>176.9646265220947</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>246.7844518064644</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057564</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38172,31 +38172,31 @@
         <v>1.332299818266897</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>88.27060879450231</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O46" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>185.031508893286</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
         <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
